--- a/Running projects/J. Zeta Mall Islamabad/2433_Fire_Tender Documents_Ver-1.0_171024.xlsx
+++ b/Running projects/J. Zeta Mall Islamabad/2433_Fire_Tender Documents_Ver-1.0_171024.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rehan Aslam\Desktop\J. Zeta Mall Islamabad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\J. Zeta Mall Islamabad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EAFCC6-486E-4A81-9900-6287922E9807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7088CA-6433-487B-B7EB-6EB13604EC43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
@@ -703,7 +703,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd\ mm\ yy;@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -958,6 +958,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -987,30 +1011,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1031,9 +1031,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1071,9 +1071,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1106,9 +1106,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1141,9 +1158,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1319,17 +1353,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="60.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="69.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="26" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
@@ -1338,18 +1372,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -1361,10 +1395,10 @@
       <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="21">
         <v>4</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="21">
         <v>5</v>
       </c>
       <c r="F2" s="2">
@@ -1393,10 +1427,10 @@
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1425,10 +1459,10 @@
       <c r="C4" s="9">
         <v>3</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="23">
         <v>4</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="23">
         <v>5</v>
       </c>
       <c r="F4" s="9">
@@ -1485,27 +1519,27 @@
       <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="24">
         <v>735</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="19">
         <v>660</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="19">
         <f>F7*D7</f>
         <v>485100</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="19">
         <v>195</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="19">
         <f>H7*D7</f>
         <v>143325</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="19">
         <f>I7+G7</f>
         <v>628425</v>
       </c>
@@ -1518,27 +1552,27 @@
       <c r="C8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="24">
         <v>52</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="19">
         <v>770</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="19">
         <f t="shared" ref="G8:G20" si="0">F8*D8</f>
         <v>40040</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="19">
         <v>220</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="19">
         <f t="shared" ref="I8:I20" si="1">H8*D8</f>
         <v>11440</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="19">
         <f t="shared" ref="J8:J20" si="2">I8+G8</f>
         <v>51480</v>
       </c>
@@ -1551,27 +1585,27 @@
       <c r="C9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="24">
         <v>80</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="19">
         <v>990</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="19">
         <f t="shared" si="0"/>
         <v>79200</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="19">
         <v>260</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="19">
         <f t="shared" si="1"/>
         <v>20800</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="19">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
@@ -1584,27 +1618,27 @@
       <c r="C10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="24">
         <v>105</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="19">
         <v>1100</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="19">
         <f t="shared" si="0"/>
         <v>115500</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="19">
         <v>260</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="19">
         <f t="shared" si="1"/>
         <v>27300</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="19">
         <f t="shared" si="2"/>
         <v>142800</v>
       </c>
@@ -1617,27 +1651,27 @@
       <c r="C11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="24">
         <v>122</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="19">
         <v>1510</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="19">
         <f t="shared" si="0"/>
         <v>184220</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="19">
         <v>280</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="19">
         <f t="shared" si="1"/>
         <v>34160</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="19">
         <f t="shared" si="2"/>
         <v>218380</v>
       </c>
@@ -1650,27 +1684,27 @@
       <c r="C12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="24">
         <v>24</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="19">
         <v>1910</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="19">
         <f t="shared" si="0"/>
         <v>45840</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="19">
         <v>360</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="19">
         <f t="shared" si="1"/>
         <v>8640</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="19">
         <f t="shared" si="2"/>
         <v>54480</v>
       </c>
@@ -1685,17 +1719,17 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29">
+      <c r="H13" s="19"/>
+      <c r="I13" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1708,27 +1742,27 @@
       <c r="C14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="24">
         <v>10</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="19">
         <v>7500</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="19">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="19">
         <v>1000</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="19">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="19">
         <f t="shared" si="2"/>
         <v>85000</v>
       </c>
@@ -1741,27 +1775,27 @@
       <c r="C15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="24">
         <v>11</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="19">
         <v>3200</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="19">
         <f t="shared" si="0"/>
         <v>35200</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="19">
         <v>1000</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="19">
         <f t="shared" si="1"/>
         <v>11000</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="19">
         <f t="shared" si="2"/>
         <v>46200</v>
       </c>
@@ -1774,27 +1808,27 @@
       <c r="C16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="24">
         <v>64</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="19">
         <v>3200</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="19">
         <f t="shared" si="0"/>
         <v>204800</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="19">
         <v>1000</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="19">
         <f t="shared" si="1"/>
         <v>64000</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="19">
         <f t="shared" si="2"/>
         <v>268800</v>
       </c>
@@ -1809,17 +1843,17 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29">
+      <c r="H17" s="19"/>
+      <c r="I17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1832,27 +1866,27 @@
       <c r="C18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="24">
         <v>1</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="19">
         <v>15500</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="19">
         <f t="shared" si="0"/>
         <v>15500</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="19">
         <v>1000</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="19">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="19">
         <f t="shared" si="2"/>
         <v>16500</v>
       </c>
@@ -1865,27 +1899,27 @@
       <c r="C19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="24">
         <v>1</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="19">
         <v>25000</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="19">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="19">
         <v>1000</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="19">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="19">
         <f t="shared" si="2"/>
         <v>26000</v>
       </c>
@@ -1898,39 +1932,39 @@
       <c r="C20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="24">
         <v>1</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="19">
         <v>55000</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="19">
         <f t="shared" si="0"/>
         <v>55000</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="19">
         <v>1000</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="19">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="19">
         <f t="shared" si="2"/>
         <v>56000</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -1947,27 +1981,27 @@
       <c r="C22" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="24">
         <v>1</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="19">
         <v>10500</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="19">
         <f t="shared" ref="G22:G29" si="3">F22*D22</f>
         <v>10500</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="19">
         <v>1000</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="19">
         <f t="shared" ref="I22:I29" si="4">H22*D22</f>
         <v>1000</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="19">
         <f t="shared" ref="J22:J29" si="5">I22+G22</f>
         <v>11500</v>
       </c>
@@ -1980,17 +2014,17 @@
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29">
+      <c r="F23" s="19"/>
+      <c r="G23" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29">
+      <c r="H23" s="19"/>
+      <c r="I23" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2005,27 +2039,27 @@
       <c r="C24" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="24">
         <v>1</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="19">
         <v>250000</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="19">
         <f t="shared" si="3"/>
         <v>250000</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="19">
         <v>75000</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="19">
         <f t="shared" si="4"/>
         <v>75000</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="19">
         <f t="shared" si="5"/>
         <v>325000</v>
       </c>
@@ -2040,32 +2074,32 @@
       <c r="C25" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="24">
         <v>1</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="19">
         <v>75000</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="19">
         <f t="shared" si="3"/>
         <v>75000</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="19">
         <v>10000</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="19">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="19">
         <f t="shared" si="5"/>
         <v>85000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>23</v>
       </c>
@@ -2075,27 +2109,27 @@
       <c r="C26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="24">
         <v>1</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="19">
         <v>25000</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="19">
         <f t="shared" si="3"/>
         <v>25000</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="19">
         <v>10000</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="19">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="19">
         <f t="shared" si="5"/>
         <v>35000</v>
       </c>
@@ -2108,17 +2142,17 @@
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29">
+      <c r="F27" s="19"/>
+      <c r="G27" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29">
+      <c r="H27" s="19"/>
+      <c r="I27" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J27" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2133,27 +2167,27 @@
       <c r="C28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="24">
         <v>1</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="19">
         <v>15000</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="19">
         <f t="shared" si="3"/>
         <v>15000</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="19">
         <v>15000</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="19">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28" s="19">
         <f t="shared" si="5"/>
         <v>30000</v>
       </c>
@@ -2168,39 +2202,39 @@
       <c r="C29" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="24">
         <v>1</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="19">
         <v>10000</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="19">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="19">
         <v>15000</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="19">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="19">
         <f t="shared" si="5"/>
         <v>25000</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
@@ -2208,36 +2242,36 @@
       <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10" ht="8.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="25"/>
-    </row>
-    <row r="32" spans="1:10" ht="26.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="30">
+      <c r="G32" s="20">
         <f>SUM(G6:G29)</f>
         <v>1745900</v>
       </c>
       <c r="H32" s="18"/>
-      <c r="I32" s="30">
+      <c r="I32" s="20">
         <f>SUM(I6:I29)</f>
         <v>459665</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="20">
         <f>SUM(J6:J29)</f>
         <v>2205565</v>
       </c>
@@ -2250,6 +2284,7 @@
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A32:E32"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>